--- a/input_model.xlsx
+++ b/input_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\鹿島意匠\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\鹿島意匠\Initial_Section_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8529FCD-467E-4404-BCD8-0E4F41BEE9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6D3F4F-A2C3-40B5-9C7B-FF70C87E7ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-405" yWindow="4425" windowWidth="19890" windowHeight="12435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Node" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>No.</t>
   </si>
@@ -87,14 +87,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>C_i</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C_j</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>boundary</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -112,6 +104,22 @@
   </si>
   <si>
     <t>BB</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Ix</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Iy</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1066,7 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1086,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -1659,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1676,16 +1684,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -1699,13 +1707,13 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E2">
-        <v>331</v>
-      </c>
       <c r="F2">
-        <v>331</v>
+        <v>-21.858957990296648</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -1719,13 +1727,13 @@
         <v>3</v>
       </c>
       <c r="D3">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>35.799999999999997</v>
-      </c>
       <c r="F3">
-        <v>35.799999999999997</v>
+        <v>-13.50535687339671</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -1739,13 +1747,13 @@
         <v>4</v>
       </c>
       <c r="D4">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>35.799999999999997</v>
-      </c>
       <c r="F4">
-        <v>35.799999999999997</v>
+        <v>-13.50535687339671</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1759,13 +1767,13 @@
         <v>4</v>
       </c>
       <c r="D5">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E5">
         <v>3.19</v>
       </c>
-      <c r="E5">
-        <v>489</v>
-      </c>
       <c r="F5">
-        <v>489</v>
+        <v>-32.29314337539293</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -1779,13 +1787,13 @@
         <v>5</v>
       </c>
       <c r="D6">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E6">
         <v>0.99</v>
       </c>
-      <c r="E6">
-        <v>36.6</v>
-      </c>
       <c r="F6">
-        <v>36.6</v>
+        <v>-13.518005540166204</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -1799,13 +1807,13 @@
         <v>6</v>
       </c>
       <c r="D7">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E7">
         <v>0.99</v>
       </c>
-      <c r="E7">
-        <v>36.6</v>
-      </c>
       <c r="F7">
-        <v>36.6</v>
+        <v>-13.518005540166204</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -1819,13 +1827,13 @@
         <v>6</v>
       </c>
       <c r="D8">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E8">
         <v>3.19</v>
       </c>
-      <c r="E8">
-        <v>489</v>
-      </c>
       <c r="F8">
-        <v>489</v>
+        <v>-32.29314337539293</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1839,13 +1847,13 @@
         <v>7</v>
       </c>
       <c r="D9">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E9">
         <v>0.99</v>
       </c>
-      <c r="E9">
-        <v>36.6</v>
-      </c>
       <c r="F9">
-        <v>36.6</v>
+        <v>-13.518005540166209</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -1859,13 +1867,13 @@
         <v>8</v>
       </c>
       <c r="D10">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E10">
         <v>0.99</v>
       </c>
-      <c r="E10">
-        <v>36.6</v>
-      </c>
       <c r="F10">
-        <v>36.6</v>
+        <v>-13.518005540166209</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1879,13 +1887,13 @@
         <v>8</v>
       </c>
       <c r="D11">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E11">
         <v>3.19</v>
       </c>
-      <c r="E11">
-        <v>489</v>
-      </c>
       <c r="F11">
-        <v>489</v>
+        <v>-32.29314337539293</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -1899,13 +1907,13 @@
         <v>9</v>
       </c>
       <c r="D12">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="E12">
-        <v>35.799999999999997</v>
-      </c>
       <c r="F12">
-        <v>35.799999999999997</v>
+        <v>-13.505356873396707</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -1919,13 +1927,13 @@
         <v>10</v>
       </c>
       <c r="D13">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="E13">
-        <v>35.799999999999997</v>
-      </c>
       <c r="F13">
-        <v>35.799999999999997</v>
+        <v>-13.505356873396707</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -1939,13 +1947,13 @@
         <v>10</v>
       </c>
       <c r="D14">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E14">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E14">
-        <v>331</v>
-      </c>
       <c r="F14">
-        <v>331</v>
+        <v>-21.858957990296648</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -1959,13 +1967,13 @@
         <v>12</v>
       </c>
       <c r="D15">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E15">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E15">
-        <v>328</v>
-      </c>
       <c r="F15">
-        <v>328</v>
+        <v>-21.660840546275832</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -1979,13 +1987,13 @@
         <v>13</v>
       </c>
       <c r="D16">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E16">
         <v>1</v>
       </c>
-      <c r="E16">
-        <v>34.200000000000003</v>
-      </c>
       <c r="F16">
-        <v>34.200000000000003</v>
+        <v>-12.901765504753284</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -1999,13 +2007,13 @@
         <v>14</v>
       </c>
       <c r="D17">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E17">
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>34.200000000000003</v>
-      </c>
       <c r="F17">
-        <v>34.200000000000003</v>
+        <v>-12.901765504753284</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
@@ -2019,13 +2027,13 @@
         <v>14</v>
       </c>
       <c r="D18">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E18">
         <v>3.19</v>
       </c>
-      <c r="E18">
-        <v>511</v>
-      </c>
       <c r="F18">
-        <v>511</v>
+        <v>-33.746004631545581</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -2039,13 +2047,13 @@
         <v>15</v>
       </c>
       <c r="D19">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E19">
         <v>0.99</v>
       </c>
-      <c r="E19">
-        <v>35</v>
-      </c>
       <c r="F19">
-        <v>35</v>
+        <v>-12.927054478301015</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -2059,13 +2067,13 @@
         <v>16</v>
       </c>
       <c r="D20">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E20">
         <v>0.99</v>
       </c>
-      <c r="E20">
-        <v>35</v>
-      </c>
       <c r="F20">
-        <v>35</v>
+        <v>-12.927054478301015</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -2079,13 +2087,13 @@
         <v>16</v>
       </c>
       <c r="D21">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E21">
         <v>3.19</v>
       </c>
-      <c r="E21">
-        <v>511</v>
-      </c>
       <c r="F21">
-        <v>511</v>
+        <v>-33.746004631545581</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -2099,13 +2107,13 @@
         <v>17</v>
       </c>
       <c r="D22">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E22">
         <v>0.99</v>
       </c>
-      <c r="E22">
-        <v>35</v>
-      </c>
       <c r="F22">
-        <v>35</v>
+        <v>-12.927054478301018</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -2119,13 +2127,13 @@
         <v>18</v>
       </c>
       <c r="D23">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E23">
         <v>0.99</v>
       </c>
-      <c r="E23">
-        <v>35</v>
-      </c>
       <c r="F23">
-        <v>35</v>
+        <v>-12.927054478301018</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
@@ -2139,13 +2147,13 @@
         <v>18</v>
       </c>
       <c r="D24">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E24">
         <v>3.19</v>
       </c>
-      <c r="E24">
-        <v>511</v>
-      </c>
       <c r="F24">
-        <v>511</v>
+        <v>-33.746004631545581</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -2159,13 +2167,13 @@
         <v>19</v>
       </c>
       <c r="D25">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E25">
         <v>1</v>
       </c>
-      <c r="E25">
-        <v>34.200000000000003</v>
-      </c>
       <c r="F25">
-        <v>34.200000000000003</v>
+        <v>-12.90176550475328</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -2179,13 +2187,13 @@
         <v>20</v>
       </c>
       <c r="D26">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E26">
         <v>1</v>
       </c>
-      <c r="E26">
-        <v>34.200000000000003</v>
-      </c>
       <c r="F26">
-        <v>34.200000000000003</v>
+        <v>-12.90176550475328</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
@@ -2199,13 +2207,13 @@
         <v>20</v>
       </c>
       <c r="D27">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E27">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E27">
-        <v>328</v>
-      </c>
       <c r="F27">
-        <v>328</v>
+        <v>-21.660840546275832</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -2219,13 +2227,13 @@
         <v>22</v>
       </c>
       <c r="D28">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E28">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E28">
-        <v>331</v>
-      </c>
       <c r="F28">
-        <v>331</v>
+        <v>-21.858957990296648</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
@@ -2239,13 +2247,13 @@
         <v>23</v>
       </c>
       <c r="D29">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E29">
         <v>1</v>
       </c>
-      <c r="E29">
-        <v>34.799999999999997</v>
-      </c>
       <c r="F29">
-        <v>34.799999999999997</v>
+        <v>-13.128112267994567</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
@@ -2259,13 +2267,13 @@
         <v>24</v>
       </c>
       <c r="D30">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E30">
         <v>1</v>
       </c>
-      <c r="E30">
-        <v>34.799999999999997</v>
-      </c>
       <c r="F30">
-        <v>34.799999999999997</v>
+        <v>-13.128112267994567</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
@@ -2279,13 +2287,13 @@
         <v>24</v>
       </c>
       <c r="D31">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E31">
         <v>3.19</v>
       </c>
-      <c r="E31">
-        <v>511</v>
-      </c>
       <c r="F31">
-        <v>511</v>
+        <v>-33.746004631545581</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -2299,13 +2307,13 @@
         <v>25</v>
       </c>
       <c r="D32">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E32">
         <v>0.99</v>
       </c>
-      <c r="E32">
-        <v>35.5</v>
-      </c>
       <c r="F32">
-        <v>35.5</v>
+        <v>-13.111726685133887</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -2319,13 +2327,13 @@
         <v>26</v>
       </c>
       <c r="D33">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E33">
         <v>0.99</v>
       </c>
-      <c r="E33">
-        <v>35.5</v>
-      </c>
       <c r="F33">
-        <v>35.5</v>
+        <v>-13.111726685133887</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -2339,13 +2347,13 @@
         <v>26</v>
       </c>
       <c r="D34">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E34">
         <v>3.19</v>
       </c>
-      <c r="E34">
-        <v>511</v>
-      </c>
       <c r="F34">
-        <v>511</v>
+        <v>-33.746004631545581</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -2359,13 +2367,13 @@
         <v>27</v>
       </c>
       <c r="D35">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E35">
         <v>0.99</v>
       </c>
-      <c r="E35">
-        <v>35.5</v>
-      </c>
       <c r="F35">
-        <v>35.5</v>
+        <v>-13.11172668513389</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -2379,13 +2387,13 @@
         <v>28</v>
       </c>
       <c r="D36">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E36">
         <v>0.99</v>
       </c>
-      <c r="E36">
-        <v>35.5</v>
-      </c>
       <c r="F36">
-        <v>35.5</v>
+        <v>-13.11172668513389</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -2399,13 +2407,13 @@
         <v>28</v>
       </c>
       <c r="D37">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E37">
         <v>3.19</v>
       </c>
-      <c r="E37">
-        <v>511</v>
-      </c>
       <c r="F37">
-        <v>511</v>
+        <v>-33.746004631545581</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -2419,13 +2427,13 @@
         <v>29</v>
       </c>
       <c r="D38">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E38">
         <v>1</v>
       </c>
-      <c r="E38">
-        <v>34.799999999999997</v>
-      </c>
       <c r="F38">
-        <v>34.799999999999997</v>
+        <v>-13.128112267994563</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -2439,13 +2447,13 @@
         <v>30</v>
       </c>
       <c r="D39">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E39">
         <v>1</v>
       </c>
-      <c r="E39">
-        <v>34.799999999999997</v>
-      </c>
       <c r="F39">
-        <v>34.799999999999997</v>
+        <v>-13.128112267994563</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -2459,13 +2467,13 @@
         <v>30</v>
       </c>
       <c r="D40">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E40">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E40">
-        <v>331</v>
-      </c>
       <c r="F40">
-        <v>331</v>
+        <v>-21.858957990296648</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
@@ -2479,16 +2487,16 @@
         <v>32</v>
       </c>
       <c r="D41">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E41">
         <v>1.71</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -2502,16 +2510,16 @@
         <v>33</v>
       </c>
       <c r="D42">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E42">
         <v>1.71</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -2525,16 +2533,16 @@
         <v>34</v>
       </c>
       <c r="D43">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E43">
         <v>1.71</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
@@ -2548,16 +2556,16 @@
         <v>34</v>
       </c>
       <c r="D44">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E44">
         <v>1.71</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
@@ -2571,16 +2579,16 @@
         <v>35</v>
       </c>
       <c r="D45">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E45">
         <v>1.71</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
@@ -2594,16 +2602,16 @@
         <v>36</v>
       </c>
       <c r="D46">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E46">
         <v>1.71</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
@@ -2617,16 +2625,16 @@
         <v>36</v>
       </c>
       <c r="D47">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E47">
         <v>1.71</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
@@ -2640,16 +2648,16 @@
         <v>37</v>
       </c>
       <c r="D48">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E48">
         <v>1.71</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
@@ -2663,16 +2671,16 @@
         <v>38</v>
       </c>
       <c r="D49">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E49">
         <v>1.71</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
@@ -2686,16 +2694,16 @@
         <v>38</v>
       </c>
       <c r="D50">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E50">
         <v>1.71</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
@@ -2709,16 +2717,16 @@
         <v>39</v>
       </c>
       <c r="D51">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E51">
         <v>1.71</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
@@ -2732,16 +2740,16 @@
         <v>40</v>
       </c>
       <c r="D52">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E52">
         <v>1.71</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
@@ -2755,16 +2763,16 @@
         <v>40</v>
       </c>
       <c r="D53">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E53">
         <v>1.71</v>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2775,19 +2783,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2798,16 +2807,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2818,16 +2833,22 @@
         <v>11</v>
       </c>
       <c r="D2">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E2">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F2">
         <v>1.01</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>1.01</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2838,16 +2859,22 @@
         <v>12</v>
       </c>
       <c r="D3">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E3">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F3">
         <v>1.01</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>1.01</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2858,16 +2885,22 @@
         <v>13</v>
       </c>
       <c r="D4">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E4">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F4">
         <v>1.01</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>1.01</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2878,16 +2911,22 @@
         <v>14</v>
       </c>
       <c r="D5">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E5">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F5">
         <v>1.01</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>1.01</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2898,16 +2937,22 @@
         <v>15</v>
       </c>
       <c r="D6">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E6">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F6">
         <v>1.01</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>1.01</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2918,16 +2963,22 @@
         <v>16</v>
       </c>
       <c r="D7">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E7">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F7">
         <v>1.01</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>1.01</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2938,16 +2989,22 @@
         <v>17</v>
       </c>
       <c r="D8">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E8">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F8">
         <v>1.01</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>1.01</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2958,16 +3015,22 @@
         <v>18</v>
       </c>
       <c r="D9">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E9">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F9">
         <v>1.01</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>1.01</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2978,16 +3041,22 @@
         <v>19</v>
       </c>
       <c r="D10">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E10">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F10">
         <v>1.01</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>1.01</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2998,16 +3067,22 @@
         <v>20</v>
       </c>
       <c r="D11">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E11">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F11">
         <v>1.01</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>1.01</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3018,16 +3093,22 @@
         <v>21</v>
       </c>
       <c r="D12">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E12">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F12">
         <v>0.99</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>0.99</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3038,16 +3119,22 @@
         <v>22</v>
       </c>
       <c r="D13">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E13">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F13">
         <v>0.99</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>0.99</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3058,16 +3145,22 @@
         <v>23</v>
       </c>
       <c r="D14">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E14">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F14">
         <v>0.99</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>0.99</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3078,16 +3171,22 @@
         <v>24</v>
       </c>
       <c r="D15">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E15">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F15">
         <v>0.99</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>0.99</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3098,16 +3197,22 @@
         <v>25</v>
       </c>
       <c r="D16">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E16">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F16">
         <v>0.99</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>0.99</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3118,16 +3223,22 @@
         <v>26</v>
       </c>
       <c r="D17">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E17">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F17">
         <v>0.99</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>0.99</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3138,16 +3249,22 @@
         <v>27</v>
       </c>
       <c r="D18">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E18">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F18">
         <v>0.99</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>0.99</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3158,16 +3275,22 @@
         <v>28</v>
       </c>
       <c r="D19">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E19">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F19">
         <v>0.99</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>0.99</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3178,16 +3301,22 @@
         <v>29</v>
       </c>
       <c r="D20">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E20">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F20">
         <v>0.99</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>0.99</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3198,16 +3327,22 @@
         <v>30</v>
       </c>
       <c r="D21">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E21">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F21">
         <v>0.99</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>0.99</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3218,16 +3353,22 @@
         <v>31</v>
       </c>
       <c r="D22">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E22">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F22">
         <v>0.91</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>0.91</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3238,16 +3379,22 @@
         <v>32</v>
       </c>
       <c r="D23">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E23">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F23">
         <v>0.91</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>0.91</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3258,16 +3405,22 @@
         <v>33</v>
       </c>
       <c r="D24">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E24">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F24">
         <v>0.91</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>0.91</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3278,16 +3431,22 @@
         <v>34</v>
       </c>
       <c r="D25">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E25">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F25">
         <v>0.91</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>0.91</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3298,16 +3457,22 @@
         <v>35</v>
       </c>
       <c r="D26">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E26">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F26">
         <v>0.91</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>0.91</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3318,16 +3483,22 @@
         <v>36</v>
       </c>
       <c r="D27">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E27">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F27">
         <v>0.91</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>0.91</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3338,16 +3509,22 @@
         <v>37</v>
       </c>
       <c r="D28">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E28">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F28">
         <v>0.91</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>0.91</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3358,16 +3535,22 @@
         <v>38</v>
       </c>
       <c r="D29">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E29">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F29">
         <v>0.91</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>0.91</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3378,16 +3561,22 @@
         <v>39</v>
       </c>
       <c r="D30">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E30">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F30">
         <v>0.91</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>0.91</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3398,12 +3587,18 @@
         <v>40</v>
       </c>
       <c r="D31">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="E31">
+        <v>9.4799999999999987E-5</v>
+      </c>
+      <c r="F31">
         <v>0.91</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>0.91</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>1</v>
       </c>
     </row>
@@ -3433,7 +3628,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>

--- a/input_model.xlsx
+++ b/input_model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\鹿島意匠\Initial_Section_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6D3F4F-A2C3-40B5-9C7B-FF70C87E7ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53F8CFE-8376-492A-B71F-96FD95F78ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>No.</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>Iy</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>omega_1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>omega_2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>floor_area</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1667,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41:F53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2487,7 +2499,7 @@
         <v>32</v>
       </c>
       <c r="D41">
-        <v>9.4799999999999987E-5</v>
+        <v>10000</v>
       </c>
       <c r="E41">
         <v>1.71</v>
@@ -2510,7 +2522,7 @@
         <v>33</v>
       </c>
       <c r="D42">
-        <v>9.4799999999999987E-5</v>
+        <v>10000</v>
       </c>
       <c r="E42">
         <v>1.71</v>
@@ -2533,7 +2545,7 @@
         <v>34</v>
       </c>
       <c r="D43">
-        <v>9.4799999999999987E-5</v>
+        <v>10000</v>
       </c>
       <c r="E43">
         <v>1.71</v>
@@ -2556,7 +2568,7 @@
         <v>34</v>
       </c>
       <c r="D44">
-        <v>9.4799999999999987E-5</v>
+        <v>10000</v>
       </c>
       <c r="E44">
         <v>1.71</v>
@@ -2579,7 +2591,7 @@
         <v>35</v>
       </c>
       <c r="D45">
-        <v>9.4799999999999987E-5</v>
+        <v>10000</v>
       </c>
       <c r="E45">
         <v>1.71</v>
@@ -2602,7 +2614,7 @@
         <v>36</v>
       </c>
       <c r="D46">
-        <v>9.4799999999999987E-5</v>
+        <v>10000</v>
       </c>
       <c r="E46">
         <v>1.71</v>
@@ -2625,7 +2637,7 @@
         <v>36</v>
       </c>
       <c r="D47">
-        <v>9.4799999999999987E-5</v>
+        <v>10000</v>
       </c>
       <c r="E47">
         <v>1.71</v>
@@ -2648,7 +2660,7 @@
         <v>37</v>
       </c>
       <c r="D48">
-        <v>9.4799999999999987E-5</v>
+        <v>10000</v>
       </c>
       <c r="E48">
         <v>1.71</v>
@@ -2671,7 +2683,7 @@
         <v>38</v>
       </c>
       <c r="D49">
-        <v>9.4799999999999987E-5</v>
+        <v>10000</v>
       </c>
       <c r="E49">
         <v>1.71</v>
@@ -2694,7 +2706,7 @@
         <v>38</v>
       </c>
       <c r="D50">
-        <v>9.4799999999999987E-5</v>
+        <v>10000</v>
       </c>
       <c r="E50">
         <v>1.71</v>
@@ -2717,7 +2729,7 @@
         <v>39</v>
       </c>
       <c r="D51">
-        <v>9.4799999999999987E-5</v>
+        <v>10000</v>
       </c>
       <c r="E51">
         <v>1.71</v>
@@ -2740,7 +2752,7 @@
         <v>40</v>
       </c>
       <c r="D52">
-        <v>9.4799999999999987E-5</v>
+        <v>10000</v>
       </c>
       <c r="E52">
         <v>1.71</v>
@@ -2763,7 +2775,7 @@
         <v>40</v>
       </c>
       <c r="D53">
-        <v>9.4799999999999987E-5</v>
+        <v>10000</v>
       </c>
       <c r="E53">
         <v>1.71</v>
@@ -3610,10 +3622,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5313915-AC37-414B-B15E-625BADB6FC53}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3623,7 +3635,7 @@
     <col min="4" max="4" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -3636,8 +3648,17 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>3</v>
       </c>
@@ -3650,8 +3671,17 @@
       <c r="D2">
         <v>658</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3664,8 +3694,17 @@
       <c r="D3">
         <v>1036</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3677,6 +3716,15 @@
       </c>
       <c r="D4">
         <v>1277</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
